--- a/CheckLis.xlsx
+++ b/CheckLis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
   <si>
     <t>#Tab</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t xml:space="preserve">multiuser mode topology </t>
+  </si>
+  <si>
+    <t>1 y 2</t>
   </si>
   <si>
     <r>
@@ -292,6 +295,12 @@
     <t>Quien documento</t>
   </si>
   <si>
+    <t>No conectaba por meido de multiusuario en Packet tracer</t>
+  </si>
+  <si>
+    <t>Usar la vpn Hamashi para estar conectados a la misma red</t>
+  </si>
+  <si>
     <t>Lessson Learned</t>
   </si>
   <si>
@@ -340,6 +349,9 @@
     <t>.</t>
   </si>
   <si>
+    <t>https://github.com/OrtizAxel/Caso-de-estudio.git</t>
+  </si>
+  <si>
     <t>GitHub</t>
   </si>
   <si>
@@ -350,7 +362,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -392,6 +404,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
+      <sz val="11.0"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
@@ -415,13 +433,18 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="8"/>
+      <color rgb="FF4472C4"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
       <sz val="10.0"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="8"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -456,6 +479,10 @@
       <sz val="14.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <color theme="1"/>
@@ -628,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -670,6 +697,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
@@ -698,25 +728,25 @@
     <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -726,32 +756,41 @@
     <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="15" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -765,52 +804,58 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="10" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="9" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="10" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3392,7 +3437,7 @@
       <c r="M6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="15" t="s">
         <v>15</v>
       </c>
       <c r="O6" s="11"/>
@@ -3411,16 +3456,16 @@
     <row r="7">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="11"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11" t="s">
         <v>18</v>
@@ -3471,10 +3516,10 @@
     </row>
     <row r="9">
       <c r="A9" s="11"/>
-      <c r="B9" s="18">
+      <c r="B9" s="19">
         <v>1.0</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="12"/>
@@ -3483,13 +3528,13 @@
       <c r="G9" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="20" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="11"/>
@@ -3511,10 +3556,10 @@
     </row>
     <row r="10">
       <c r="A10" s="11"/>
-      <c r="B10" s="18">
+      <c r="B10" s="19">
         <v>2.0</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="23" t="s">
         <v>24</v>
       </c>
       <c r="D10" s="12"/>
@@ -3523,11 +3568,11 @@
       <c r="G10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="24" t="s">
         <v>26</v>
       </c>
       <c r="I10" s="11"/>
-      <c r="J10" s="24"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -3575,19 +3620,19 @@
     <row r="12">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27" t="s">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="10"/>
-      <c r="H12" s="28" t="s">
+      <c r="H12" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="29"/>
+      <c r="I12" s="30"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="13" t="s">
@@ -3613,13 +3658,13 @@
     <row r="13">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
@@ -3640,15 +3685,15 @@
     </row>
     <row r="14">
       <c r="A14" s="11"/>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="13"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="30"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -3670,16 +3715,20 @@
     <row r="15">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="37" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="1">
         <v>3.0</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="39"/>
+      <c r="F15" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="40"/>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
@@ -3702,16 +3751,18 @@
     <row r="16">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
-      <c r="C16" s="36" t="s">
-        <v>34</v>
+      <c r="C16" s="37" t="s">
+        <v>35</v>
       </c>
       <c r="D16" s="1">
         <v>7.0</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="39"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="42"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -3734,15 +3785,17 @@
     <row r="17">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="40" t="s">
-        <v>35</v>
+      <c r="C17" s="43" t="s">
+        <v>36</v>
       </c>
       <c r="D17" s="1">
         <v>10.0</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="38"/>
+      <c r="G17" s="39" t="s">
+        <v>34</v>
+      </c>
       <c r="H17" s="13"/>
       <c r="I17" s="14"/>
       <c r="J17" s="11"/>
@@ -3766,11 +3819,11 @@
     <row r="18">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
-      <c r="C18" s="41"/>
+      <c r="C18" s="44"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="13"/>
-      <c r="G18" s="38"/>
+      <c r="G18" s="45"/>
       <c r="H18" s="13"/>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -3794,11 +3847,11 @@
     <row r="19">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
-      <c r="C19" s="41"/>
+      <c r="C19" s="44"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="13"/>
-      <c r="G19" s="38"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="13"/>
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
@@ -3823,12 +3876,12 @@
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="13"/>
-      <c r="G20" s="38"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="13"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -3852,15 +3905,15 @@
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
-      <c r="C21" s="42" t="s">
-        <v>37</v>
+      <c r="C21" s="46" t="s">
+        <v>38</v>
       </c>
       <c r="D21" s="1">
         <v>2.0</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="13"/>
-      <c r="G21" s="38"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="13"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -3884,15 +3937,15 @@
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
-      <c r="C22" s="42" t="s">
-        <v>38</v>
+      <c r="C22" s="46" t="s">
+        <v>39</v>
       </c>
       <c r="D22" s="12">
         <v>2.0</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="13"/>
-      <c r="G22" s="38"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="13"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -3916,15 +3969,15 @@
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
-      <c r="C23" s="43" t="s">
-        <v>39</v>
+      <c r="C23" s="47" t="s">
+        <v>40</v>
       </c>
       <c r="D23" s="12">
         <v>2.0</v>
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
-      <c r="G23" s="38"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -3952,7 +4005,7 @@
       <c r="D24" s="12"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
-      <c r="G24" s="38"/>
+      <c r="G24" s="45"/>
       <c r="H24" s="11"/>
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
@@ -3977,12 +4030,12 @@
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D25" s="12"/>
       <c r="E25" s="11"/>
       <c r="F25" s="13"/>
-      <c r="G25" s="38"/>
+      <c r="G25" s="45"/>
       <c r="H25" s="13"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
@@ -4010,7 +4063,7 @@
       <c r="D26" s="12"/>
       <c r="E26" s="11"/>
       <c r="F26" s="13"/>
-      <c r="G26" s="38"/>
+      <c r="G26" s="45"/>
       <c r="H26" s="13"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
@@ -4038,7 +4091,7 @@
       <c r="D27" s="12"/>
       <c r="E27" s="11"/>
       <c r="F27" s="13"/>
-      <c r="G27" s="38"/>
+      <c r="G27" s="45"/>
       <c r="H27" s="13"/>
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
@@ -4062,16 +4115,16 @@
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
-      <c r="C28" s="44" t="s">
-        <v>41</v>
+      <c r="C28" s="48" t="s">
+        <v>42</v>
       </c>
       <c r="D28" s="1">
         <v>8.0</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="39"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="42"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
@@ -4094,8 +4147,8 @@
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
-      <c r="C29" s="43" t="s">
-        <v>42</v>
+      <c r="C29" s="47" t="s">
+        <v>43</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -4124,8 +4177,8 @@
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
-      <c r="C30" s="43" t="s">
-        <v>43</v>
+      <c r="C30" s="47" t="s">
+        <v>44</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -4154,8 +4207,8 @@
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
-      <c r="C31" s="43" t="s">
-        <v>44</v>
+      <c r="C31" s="47" t="s">
+        <v>45</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -4184,8 +4237,8 @@
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
-      <c r="C32" s="43" t="s">
-        <v>45</v>
+      <c r="C32" s="47" t="s">
+        <v>46</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -4214,8 +4267,8 @@
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
-      <c r="C33" s="43" t="s">
-        <v>46</v>
+      <c r="C33" s="47" t="s">
+        <v>47</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -4244,8 +4297,8 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
-      <c r="C34" s="43" t="s">
-        <v>47</v>
+      <c r="C34" s="47" t="s">
+        <v>48</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -4274,15 +4327,15 @@
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
-      <c r="C35" s="44" t="s">
-        <v>48</v>
+      <c r="C35" s="48" t="s">
+        <v>49</v>
       </c>
       <c r="D35" s="1">
         <v>10.0</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="37"/>
-      <c r="H35" s="39"/>
+      <c r="F35" s="41"/>
+      <c r="H35" s="42"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
@@ -4305,7 +4358,7 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
-      <c r="C36" s="42"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="13"/>
@@ -4332,9 +4385,9 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
       <c r="F37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="11"/>
@@ -4358,12 +4411,12 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="11"/>
-      <c r="B38" s="45" t="s">
-        <v>49</v>
+      <c r="B38" s="49" t="s">
+        <v>50</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="46"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="50"/>
       <c r="F38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="11"/>
@@ -4388,7 +4441,7 @@
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
-      <c r="C39" s="42"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="13"/>
@@ -4442,10 +4495,10 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
-      <c r="C41" s="48" t="s">
-        <v>50</v>
+      <c r="C41" s="52" t="s">
+        <v>51</v>
       </c>
-      <c r="D41" s="49"/>
+      <c r="D41" s="53"/>
       <c r="E41" s="14"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
@@ -4469,15 +4522,15 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
-      <c r="C42" s="50" t="s">
-        <v>51</v>
+      <c r="C42" s="54" t="s">
+        <v>52</v>
       </c>
-      <c r="D42" s="51">
+      <c r="D42" s="55">
         <v>3.0</v>
       </c>
-      <c r="E42" s="52"/>
-      <c r="F42" s="37"/>
-      <c r="H42" s="53"/>
+      <c r="E42" s="56"/>
+      <c r="F42" s="41"/>
+      <c r="H42" s="57"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
@@ -4500,15 +4553,15 @@
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="54" t="s">
-        <v>52</v>
+      <c r="C43" s="58" t="s">
+        <v>53</v>
       </c>
-      <c r="D43" s="51">
+      <c r="D43" s="55">
         <v>3.0</v>
       </c>
-      <c r="E43" s="52"/>
-      <c r="F43" s="37"/>
-      <c r="H43" s="53"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="41"/>
+      <c r="H43" s="57"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
@@ -4531,7 +4584,7 @@
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
-      <c r="C44" s="52"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="12"/>
       <c r="E44" s="11"/>
       <c r="I44" s="11"/>
@@ -4556,9 +4609,9 @@
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
-      <c r="D45" s="49"/>
+      <c r="D45" s="53"/>
       <c r="E45" s="14"/>
       <c r="F45" s="11"/>
       <c r="H45" s="11"/>
@@ -4584,15 +4637,15 @@
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
-      <c r="C46" s="44" t="s">
-        <v>54</v>
+      <c r="C46" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="D46" s="1">
         <v>10.0</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="37"/>
-      <c r="H46" s="39"/>
+      <c r="F46" s="41"/>
+      <c r="H46" s="42"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
@@ -4615,15 +4668,15 @@
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
-      <c r="C47" s="44" t="s">
-        <v>55</v>
+      <c r="C47" s="48" t="s">
+        <v>56</v>
       </c>
       <c r="D47" s="1">
         <v>5.0</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="37"/>
-      <c r="H47" s="39"/>
+      <c r="F47" s="41"/>
+      <c r="H47" s="42"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
@@ -4646,7 +4699,7 @@
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
-      <c r="C48" s="52"/>
+      <c r="C48" s="56"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="13"/>
@@ -4674,7 +4727,7 @@
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D49" s="12"/>
       <c r="E49" s="11"/>
@@ -4702,15 +4755,15 @@
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
-      <c r="C50" s="44" t="s">
-        <v>56</v>
+      <c r="C50" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="D50" s="1">
         <v>5.0</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="37"/>
-      <c r="H50" s="39"/>
+      <c r="F50" s="41"/>
+      <c r="H50" s="42"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
@@ -4733,15 +4786,15 @@
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
-      <c r="C51" s="44" t="s">
-        <v>57</v>
+      <c r="C51" s="48" t="s">
+        <v>58</v>
       </c>
       <c r="D51" s="1">
         <v>2.0</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="37"/>
-      <c r="H51" s="39"/>
+      <c r="F51" s="41"/>
+      <c r="H51" s="42"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
@@ -4764,7 +4817,7 @@
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
-      <c r="C52" s="42"/>
+      <c r="C52" s="46"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="13"/>
@@ -4792,7 +4845,7 @@
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="11"/>
@@ -4820,15 +4873,15 @@
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
-      <c r="C54" s="44" t="s">
-        <v>59</v>
+      <c r="C54" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="D54" s="1">
         <v>3.0</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="37"/>
-      <c r="H54" s="39"/>
+      <c r="F54" s="41"/>
+      <c r="H54" s="42"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
@@ -4851,15 +4904,15 @@
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
-      <c r="C55" s="44" t="s">
-        <v>60</v>
+      <c r="C55" s="48" t="s">
+        <v>61</v>
       </c>
       <c r="D55" s="1">
         <v>3.0</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="37"/>
-      <c r="H55" s="39"/>
+      <c r="F55" s="41"/>
+      <c r="H55" s="42"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
@@ -4882,15 +4935,15 @@
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
-      <c r="C56" s="44" t="s">
-        <v>61</v>
+      <c r="C56" s="48" t="s">
+        <v>62</v>
       </c>
       <c r="D56" s="1">
         <v>3.0</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="37"/>
-      <c r="H56" s="39"/>
+      <c r="F56" s="41"/>
+      <c r="H56" s="42"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
@@ -4913,7 +4966,7 @@
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
-      <c r="C57" s="42"/>
+      <c r="C57" s="46"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="13"/>
@@ -4940,9 +4993,9 @@
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
-      <c r="C58" s="42"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
       <c r="F58" s="13"/>
       <c r="H58" s="13"/>
       <c r="I58" s="11"/>
@@ -4967,11 +5020,11 @@
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
-      <c r="C59" s="42"/>
+      <c r="C59" s="46"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="13"/>
-      <c r="G59" s="18"/>
+      <c r="G59" s="19"/>
       <c r="H59" s="13"/>
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
@@ -4994,10 +5047,10 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="11"/>
-      <c r="B60" s="55" t="s">
-        <v>62</v>
+      <c r="B60" s="59" t="s">
+        <v>63</v>
       </c>
-      <c r="C60" s="56"/>
+      <c r="C60" s="60"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="13"/>
@@ -5024,7 +5077,7 @@
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
-      <c r="C61" s="42"/>
+      <c r="C61" s="46"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="13"/>
@@ -5078,15 +5131,15 @@
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
-      <c r="C63" s="57" t="s">
-        <v>63</v>
+      <c r="C63" s="61" t="s">
+        <v>64</v>
       </c>
       <c r="D63" s="1">
         <v>2.0</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="37"/>
-      <c r="H63" s="53"/>
+      <c r="F63" s="41"/>
+      <c r="H63" s="57"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
@@ -5109,16 +5162,16 @@
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
-      <c r="C64" s="36" t="s">
-        <v>64</v>
+      <c r="C64" s="37" t="s">
+        <v>65</v>
       </c>
       <c r="D64" s="1">
         <v>2.0</v>
       </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="37"/>
+      <c r="F64" s="41"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="39"/>
+      <c r="H64" s="42"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
@@ -5141,7 +5194,7 @@
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
-      <c r="C65" s="42"/>
+      <c r="C65" s="46"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="11"/>
@@ -5170,8 +5223,8 @@
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
@@ -5224,10 +5277,10 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="11"/>
-      <c r="B68" s="58" t="s">
-        <v>65</v>
+      <c r="B68" s="62" t="s">
+        <v>66</v>
       </c>
-      <c r="C68" s="59"/>
+      <c r="C68" s="63"/>
       <c r="D68" s="12"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
@@ -5282,15 +5335,15 @@
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
-      <c r="C70" s="44" t="s">
-        <v>66</v>
+      <c r="C70" s="48" t="s">
+        <v>67</v>
       </c>
       <c r="D70" s="1">
         <v>5.0</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="37"/>
-      <c r="H70" s="39"/>
+      <c r="F70" s="41"/>
+      <c r="H70" s="42"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
@@ -5313,15 +5366,15 @@
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
-      <c r="C71" s="44" t="s">
+      <c r="C71" s="48" t="s">
         <v>7</v>
       </c>
       <c r="D71" s="1">
         <v>5.0</v>
       </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="37"/>
-      <c r="H71" s="39"/>
+      <c r="F71" s="41"/>
+      <c r="H71" s="42"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
@@ -5344,18 +5397,18 @@
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
-      <c r="C72" s="44" t="s">
+      <c r="C72" s="48" t="s">
         <v>5</v>
       </c>
       <c r="D72" s="1">
         <v>5.0</v>
       </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="37"/>
-      <c r="H72" s="39"/>
+      <c r="F72" s="41"/>
+      <c r="H72" s="42"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
@@ -5378,8 +5431,8 @@
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
       <c r="F73" s="13"/>
       <c r="H73" s="13"/>
       <c r="I73" s="11"/>
@@ -5404,14 +5457,14 @@
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
-      <c r="C74" s="42"/>
+      <c r="C74" s="46"/>
       <c r="D74" s="12"/>
       <c r="E74" s="11"/>
-      <c r="F74" s="60">
+      <c r="F74" s="64">
         <f>SUM(F15:F72)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
-      <c r="H74" s="60">
+      <c r="H74" s="64">
         <f>SUM(H15:H72)</f>
         <v>0</v>
       </c>
@@ -5471,7 +5524,7 @@
       </c>
       <c r="E76" s="13"/>
       <c r="F76" s="13"/>
-      <c r="G76" s="18"/>
+      <c r="G76" s="19"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
       <c r="J76" s="11"/>
@@ -5499,7 +5552,7 @@
       <c r="D77" s="12"/>
       <c r="E77" s="11"/>
       <c r="F77" s="13"/>
-      <c r="H77" s="61"/>
+      <c r="H77" s="65"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
@@ -5549,9 +5602,9 @@
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
-      <c r="C79" s="62"/>
-      <c r="D79" s="63"/>
-      <c r="E79" s="62"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="66"/>
       <c r="F79" s="13"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -5630,9 +5683,9 @@
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="64"/>
+      <c r="C82" s="68"/>
+      <c r="D82" s="67"/>
+      <c r="E82" s="68"/>
       <c r="F82" s="13"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
@@ -13065,10 +13118,13 @@
       <c r="D1000" s="12"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="N6"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.0" footer="0.0" header="0.0" left="0.3937007874015748" right="0.3937007874015748" top="0.0"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13084,67 +13140,67 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="11.43"/>
     <col customWidth="1" min="2" max="2" width="5.71"/>
-    <col customWidth="1" min="3" max="3" width="25.71"/>
-    <col customWidth="1" min="4" max="4" width="4.14"/>
-    <col customWidth="1" min="5" max="5" width="27.43"/>
-    <col customWidth="1" min="6" max="6" width="17.14"/>
+    <col customWidth="1" min="3" max="3" width="50.43"/>
+    <col customWidth="1" min="4" max="4" width="52.71"/>
+    <col customWidth="1" min="5" max="5" width="17.14"/>
   </cols>
   <sheetData>
     <row r="3">
       <c r="C3" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C6" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="18" t="s">
+      <c r="C6" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="D6" s="19" t="s">
         <v>72</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="1">
         <v>1.0</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
+      <c r="C7" s="69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="69" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="1">
         <v>2.0</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
     </row>
     <row r="9">
       <c r="B9" s="1">
         <v>3.0</v>
       </c>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
     </row>
     <row r="10">
       <c r="B10" s="1">
         <v>4.0</v>
       </c>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -14152,13 +14208,13 @@
   </cols>
   <sheetData>
     <row r="10">
-      <c r="B10" s="66" t="s">
-        <v>73</v>
+      <c r="B10" s="71" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11">
       <c r="I11" s="11" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -14166,7 +14222,7 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D12" s="10"/>
     </row>
@@ -14175,7 +14231,7 @@
         <v>2.0</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D13" s="10"/>
     </row>
@@ -14184,7 +14240,7 @@
         <v>3.0</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D14" s="10"/>
     </row>
@@ -14193,11 +14249,11 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="G15" s="67" t="s">
-        <v>79</v>
+      <c r="G15" s="72" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -14212,7 +14268,7 @@
         <v>1.0</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D18" s="10"/>
     </row>
@@ -14221,7 +14277,7 @@
         <v>2.0</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D19" s="10"/>
     </row>
@@ -14230,7 +14286,7 @@
         <v>3.0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D20" s="10"/>
     </row>
@@ -14238,10 +14294,10 @@
       <c r="D21" s="10"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="C22" s="21"/>
+      <c r="C22" s="22"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="C23" s="43"/>
+      <c r="C23" s="47"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="D24" s="14"/>
@@ -15246,67 +15302,70 @@
   <sheetData>
     <row r="3">
       <c r="B3" s="11" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="18">
+      <c r="B4" s="19">
         <v>1.0</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="18">
+      <c r="B5" s="19">
         <v>2.0</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="18">
+      <c r="B6" s="19">
         <v>3.0</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="18">
+      <c r="B7" s="19">
         <v>4.0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="68" t="s">
-        <v>88</v>
+      <c r="B8" s="73" t="s">
+        <v>91</v>
       </c>
-      <c r="I8" s="69" t="s">
-        <v>89</v>
+      <c r="C8" s="74" t="s">
+        <v>92</v>
       </c>
+      <c r="I8" s="75" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="68" t="s">
-        <v>88</v>
+      <c r="B9" s="73" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="68" t="s">
-        <v>88</v>
+      <c r="B10" s="73" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="68" t="s">
-        <v>88</v>
+      <c r="B11" s="73" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -16290,9 +16349,12 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C8"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/CheckLis.xlsx
+++ b/CheckLis.xlsx
@@ -655,7 +655,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -771,14 +771,14 @@
     <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -792,6 +792,9 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3758,11 +3761,13 @@
         <v>7.0</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="41"/>
+      <c r="F16" s="38">
+        <v>3.0</v>
+      </c>
       <c r="G16" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="42"/>
+      <c r="H16" s="41"/>
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
@@ -3785,14 +3790,16 @@
     <row r="17">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
-      <c r="C17" s="43" t="s">
+      <c r="C17" s="42" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="1">
         <v>10.0</v>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="43">
+        <v>3.0</v>
+      </c>
       <c r="G17" s="39" t="s">
         <v>34</v>
       </c>
@@ -4122,9 +4129,9 @@
         <v>8.0</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="41"/>
+      <c r="F28" s="49"/>
       <c r="G28" s="45"/>
-      <c r="H28" s="42"/>
+      <c r="H28" s="41"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11"/>
@@ -4334,8 +4341,8 @@
         <v>10.0</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="41"/>
-      <c r="H35" s="42"/>
+      <c r="F35" s="49"/>
+      <c r="H35" s="41"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
       <c r="K35" s="11"/>
@@ -4411,12 +4418,12 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="11"/>
-      <c r="B38" s="49" t="s">
+      <c r="B38" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="50"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="51"/>
       <c r="F38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="11"/>
@@ -4495,10 +4502,10 @@
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
-      <c r="C41" s="52" t="s">
+      <c r="C41" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="53"/>
+      <c r="D41" s="54"/>
       <c r="E41" s="14"/>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
@@ -4522,15 +4529,15 @@
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
-      <c r="C42" s="54" t="s">
+      <c r="C42" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="55">
+      <c r="D42" s="56">
         <v>3.0</v>
       </c>
-      <c r="E42" s="56"/>
-      <c r="F42" s="41"/>
-      <c r="H42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="49"/>
+      <c r="H42" s="58"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
       <c r="K42" s="11"/>
@@ -4553,15 +4560,15 @@
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="55">
+      <c r="D43" s="56">
         <v>3.0</v>
       </c>
-      <c r="E43" s="56"/>
-      <c r="F43" s="41"/>
-      <c r="H43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="49"/>
+      <c r="H43" s="58"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11"/>
@@ -4584,7 +4591,7 @@
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
-      <c r="C44" s="56"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="12"/>
       <c r="E44" s="11"/>
       <c r="I44" s="11"/>
@@ -4611,7 +4618,7 @@
       <c r="C45" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="53"/>
+      <c r="D45" s="54"/>
       <c r="E45" s="14"/>
       <c r="F45" s="11"/>
       <c r="H45" s="11"/>
@@ -4644,8 +4651,8 @@
         <v>10.0</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="41"/>
-      <c r="H46" s="42"/>
+      <c r="F46" s="49"/>
+      <c r="H46" s="41"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
@@ -4675,8 +4682,8 @@
         <v>5.0</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="41"/>
-      <c r="H47" s="42"/>
+      <c r="F47" s="49"/>
+      <c r="H47" s="41"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
@@ -4699,7 +4706,7 @@
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
-      <c r="C48" s="56"/>
+      <c r="C48" s="57"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="13"/>
@@ -4762,8 +4769,8 @@
         <v>5.0</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="41"/>
-      <c r="H50" s="42"/>
+      <c r="F50" s="49"/>
+      <c r="H50" s="41"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
       <c r="K50" s="11"/>
@@ -4793,8 +4800,8 @@
         <v>2.0</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="41"/>
-      <c r="H51" s="42"/>
+      <c r="F51" s="49"/>
+      <c r="H51" s="41"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11"/>
@@ -4880,8 +4887,8 @@
         <v>3.0</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="41"/>
-      <c r="H54" s="42"/>
+      <c r="F54" s="49"/>
+      <c r="H54" s="41"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11"/>
@@ -4911,8 +4918,8 @@
         <v>3.0</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="41"/>
-      <c r="H55" s="42"/>
+      <c r="F55" s="49"/>
+      <c r="H55" s="41"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11"/>
@@ -4942,8 +4949,8 @@
         <v>3.0</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="41"/>
-      <c r="H56" s="42"/>
+      <c r="F56" s="49"/>
+      <c r="H56" s="41"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
@@ -5047,10 +5054,10 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="11"/>
-      <c r="B60" s="59" t="s">
+      <c r="B60" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="60"/>
+      <c r="C60" s="61"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="13"/>
@@ -5131,15 +5138,15 @@
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
-      <c r="C63" s="61" t="s">
+      <c r="C63" s="62" t="s">
         <v>64</v>
       </c>
       <c r="D63" s="1">
         <v>2.0</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="41"/>
-      <c r="H63" s="57"/>
+      <c r="F63" s="49"/>
+      <c r="H63" s="58"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
@@ -5169,9 +5176,9 @@
         <v>2.0</v>
       </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="41"/>
+      <c r="F64" s="49"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="42"/>
+      <c r="H64" s="41"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
       <c r="K64" s="11"/>
@@ -5277,10 +5284,10 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="11"/>
-      <c r="B68" s="62" t="s">
+      <c r="B68" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="63"/>
+      <c r="C68" s="64"/>
       <c r="D68" s="12"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
@@ -5342,8 +5349,8 @@
         <v>5.0</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="41"/>
-      <c r="H70" s="42"/>
+      <c r="F70" s="49"/>
+      <c r="H70" s="41"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="11"/>
@@ -5373,8 +5380,8 @@
         <v>5.0</v>
       </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="41"/>
-      <c r="H71" s="42"/>
+      <c r="F71" s="49"/>
+      <c r="H71" s="41"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11"/>
@@ -5404,8 +5411,8 @@
         <v>5.0</v>
       </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="41"/>
-      <c r="H72" s="42"/>
+      <c r="F72" s="49"/>
+      <c r="H72" s="41"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11" t="s">
         <v>68</v>
@@ -5460,11 +5467,11 @@
       <c r="C74" s="46"/>
       <c r="D74" s="12"/>
       <c r="E74" s="11"/>
-      <c r="F74" s="64">
+      <c r="F74" s="65">
         <f>SUM(F15:F72)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
-      <c r="H74" s="64">
+      <c r="H74" s="65">
         <f>SUM(H15:H72)</f>
         <v>0</v>
       </c>
@@ -5552,7 +5559,7 @@
       <c r="D77" s="12"/>
       <c r="E77" s="11"/>
       <c r="F77" s="13"/>
-      <c r="H77" s="65"/>
+      <c r="H77" s="66"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
@@ -5602,9 +5609,9 @@
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="66"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="67"/>
       <c r="F79" s="13"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -5683,9 +5690,9 @@
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
-      <c r="C82" s="68"/>
-      <c r="D82" s="67"/>
-      <c r="E82" s="68"/>
+      <c r="C82" s="69"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="69"/>
       <c r="F82" s="13"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
@@ -13168,13 +13175,13 @@
       <c r="B7" s="1">
         <v>1.0</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="70" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="70" t="s">
         <v>24</v>
       </c>
     </row>
@@ -13182,25 +13189,25 @@
       <c r="B8" s="1">
         <v>2.0</v>
       </c>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
     </row>
     <row r="9">
       <c r="B9" s="1">
         <v>3.0</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
     </row>
     <row r="10">
       <c r="B10" s="1">
         <v>4.0</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -14208,7 +14215,7 @@
   </cols>
   <sheetData>
     <row r="10">
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="72" t="s">
         <v>76</v>
       </c>
     </row>
@@ -14252,7 +14259,7 @@
         <v>81</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="73" t="s">
         <v>82</v>
       </c>
     </row>
@@ -15338,28 +15345,28 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="I8" s="75" t="s">
+      <c r="I8" s="76" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="74" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="73" t="s">
+      <c r="B10" s="74" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="73" t="s">
+      <c r="B11" s="74" t="s">
         <v>91</v>
       </c>
     </row>

--- a/CheckLis.xlsx
+++ b/CheckLis.xlsx
@@ -3762,7 +3762,7 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="38">
-        <v>3.0</v>
+        <v>7.0</v>
       </c>
       <c r="G16" s="39" t="s">
         <v>34</v>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="43">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="G17" s="39" t="s">
         <v>34</v>
@@ -5469,7 +5469,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="65">
         <f>SUM(F15:F72)</f>
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="H74" s="65">
         <f>SUM(H15:H72)</f>

--- a/CheckLis.xlsx
+++ b/CheckLis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
   <si>
     <t>#Tab</t>
   </si>
@@ -277,6 +277,9 @@
     <t>Team Work Evidence</t>
   </si>
   <si>
+    <t>1y2</t>
+  </si>
+  <si>
     <t>Problemas encotrados y como se resolvieron</t>
   </si>
   <si>
@@ -295,10 +298,46 @@
     <t>Quien documento</t>
   </si>
   <si>
-    <t>No conectaba por meido de multiusuario en Packet tracer</t>
+    <t>No conectaba por medio de multiusuario en Packet tracer</t>
   </si>
   <si>
     <t>Usar la vpn Hamashi para estar conectados a la misma red</t>
+  </si>
+  <si>
+    <t>Los puertos en etherchannel estan "Down"</t>
+  </si>
+  <si>
+    <t>Configurar correctamente el full duplex y el auto y desirabe</t>
+  </si>
+  <si>
+    <t>VIcente Olvera Vazquez</t>
+  </si>
+  <si>
+    <t>No habia conectividad entre vlans</t>
+  </si>
+  <si>
+    <t>conectar la PC de otra vlan en el puerto correspondiente en el switch</t>
+  </si>
+  <si>
+    <t>Vicente Olvera Vazquez</t>
+  </si>
+  <si>
+    <t>DHCP no funciona correctamente APIPA</t>
+  </si>
+  <si>
+    <t>ingresar el helper en cada subinterfaz de los 2 routers de la LAN</t>
+  </si>
+  <si>
+    <t>No hay conexion con SSH</t>
+  </si>
+  <si>
+    <t>Ingresar correctamente los comandos para generar el par de claves</t>
+  </si>
+  <si>
+    <t>No se asignan ip a las subinterfaces</t>
+  </si>
+  <si>
+    <t>Quitar ip de la interfaz</t>
   </si>
   <si>
     <t>Lessson Learned</t>
@@ -453,6 +492,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11.0"/>
       <color theme="0"/>
@@ -483,11 +527,6 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -655,7 +694,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -793,8 +832,8 @@
     <xf borderId="6" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="7" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
@@ -822,6 +861,9 @@
     <xf borderId="10" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf borderId="6" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -829,11 +871,14 @@
     <xf borderId="6" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="9" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="9" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="10" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="9" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="10" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -849,16 +894,24 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3919,8 +3972,12 @@
         <v>2.0</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="45"/>
+      <c r="F21" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>34</v>
+      </c>
       <c r="H21" s="13"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -3951,8 +4008,12 @@
         <v>2.0</v>
       </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="45"/>
+      <c r="F22" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>34</v>
+      </c>
       <c r="H22" s="13"/>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -3983,8 +4044,12 @@
         <v>2.0</v>
       </c>
       <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="45"/>
+      <c r="F23" s="43">
+        <v>2.0</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>34</v>
+      </c>
       <c r="H23" s="11"/>
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
@@ -4129,8 +4194,12 @@
         <v>8.0</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="45"/>
+      <c r="F28" s="38">
+        <v>8.0</v>
+      </c>
+      <c r="G28" s="39" t="s">
+        <v>34</v>
+      </c>
       <c r="H28" s="41"/>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -4341,7 +4410,12 @@
         <v>10.0</v>
       </c>
       <c r="E35" s="1"/>
-      <c r="F35" s="49"/>
+      <c r="F35" s="38">
+        <v>10.0</v>
+      </c>
+      <c r="G35" s="49" t="s">
+        <v>34</v>
+      </c>
       <c r="H35" s="41"/>
       <c r="I35" s="11"/>
       <c r="J35" s="11"/>
@@ -4536,7 +4610,12 @@
         <v>3.0</v>
       </c>
       <c r="E42" s="57"/>
-      <c r="F42" s="49"/>
+      <c r="F42" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="G42" s="49" t="s">
+        <v>34</v>
+      </c>
       <c r="H42" s="58"/>
       <c r="I42" s="11"/>
       <c r="J42" s="11"/>
@@ -4567,7 +4646,12 @@
         <v>3.0</v>
       </c>
       <c r="E43" s="57"/>
-      <c r="F43" s="49"/>
+      <c r="F43" s="38">
+        <v>3.0</v>
+      </c>
+      <c r="G43" s="49" t="s">
+        <v>34</v>
+      </c>
       <c r="H43" s="58"/>
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
@@ -4651,7 +4735,12 @@
         <v>10.0</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="49"/>
+      <c r="F46" s="38">
+        <v>10.0</v>
+      </c>
+      <c r="G46" s="49" t="s">
+        <v>34</v>
+      </c>
       <c r="H46" s="41"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
@@ -4682,7 +4771,12 @@
         <v>5.0</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="49"/>
+      <c r="F47" s="38">
+        <v>5.0</v>
+      </c>
+      <c r="G47" s="49" t="s">
+        <v>34</v>
+      </c>
       <c r="H47" s="41"/>
       <c r="I47" s="11"/>
       <c r="J47" s="11"/>
@@ -4769,7 +4863,7 @@
         <v>5.0</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="49"/>
+      <c r="F50" s="60"/>
       <c r="H50" s="41"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
@@ -4800,7 +4894,7 @@
         <v>2.0</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="49"/>
+      <c r="F51" s="60"/>
       <c r="H51" s="41"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
@@ -4887,7 +4981,10 @@
         <v>3.0</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="49"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="49">
+        <v>1.0</v>
+      </c>
       <c r="H54" s="41"/>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
@@ -4918,7 +5015,10 @@
         <v>3.0</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="49"/>
+      <c r="F55" s="60"/>
+      <c r="G55" s="49">
+        <v>1.0</v>
+      </c>
       <c r="H55" s="41"/>
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
@@ -4949,7 +5049,10 @@
         <v>3.0</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="49"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="49">
+        <v>1.0</v>
+      </c>
       <c r="H56" s="41"/>
       <c r="I56" s="11"/>
       <c r="J56" s="11"/>
@@ -5054,10 +5157,10 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="11"/>
-      <c r="B60" s="60" t="s">
+      <c r="B60" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="61"/>
+      <c r="C60" s="62"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="13"/>
@@ -5138,14 +5241,19 @@
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
-      <c r="C63" s="62" t="s">
+      <c r="C63" s="63" t="s">
         <v>64</v>
       </c>
       <c r="D63" s="1">
         <v>2.0</v>
       </c>
       <c r="E63" s="1"/>
-      <c r="F63" s="49"/>
+      <c r="F63" s="38">
+        <v>2.0</v>
+      </c>
+      <c r="G63" s="49">
+        <v>2.0</v>
+      </c>
       <c r="H63" s="58"/>
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
@@ -5176,8 +5284,10 @@
         <v>2.0</v>
       </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="11"/>
+      <c r="F64" s="60"/>
+      <c r="G64" s="64">
+        <v>2.0</v>
+      </c>
       <c r="H64" s="41"/>
       <c r="I64" s="11"/>
       <c r="J64" s="11"/>
@@ -5284,10 +5394,10 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="11"/>
-      <c r="B68" s="63" t="s">
+      <c r="B68" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="64"/>
+      <c r="C68" s="66"/>
       <c r="D68" s="12"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
@@ -5349,7 +5459,10 @@
         <v>5.0</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="49"/>
+      <c r="F70" s="60"/>
+      <c r="G70" s="49" t="s">
+        <v>68</v>
+      </c>
       <c r="H70" s="41"/>
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
@@ -5380,7 +5493,10 @@
         <v>5.0</v>
       </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="49"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="49" t="s">
+        <v>68</v>
+      </c>
       <c r="H71" s="41"/>
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
@@ -5411,11 +5527,16 @@
         <v>5.0</v>
       </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="49"/>
+      <c r="F72" s="38">
+        <v>5.0</v>
+      </c>
+      <c r="G72" s="49" t="s">
+        <v>68</v>
+      </c>
       <c r="H72" s="41"/>
       <c r="I72" s="11"/>
       <c r="J72" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K72" s="11"/>
       <c r="L72" s="11"/>
@@ -5467,11 +5588,11 @@
       <c r="C74" s="46"/>
       <c r="D74" s="12"/>
       <c r="E74" s="11"/>
-      <c r="F74" s="65">
+      <c r="F74" s="67">
         <f>SUM(F15:F72)</f>
-        <v>20</v>
-      </c>
-      <c r="H74" s="65">
+        <v>72</v>
+      </c>
+      <c r="H74" s="67">
         <f>SUM(H15:H72)</f>
         <v>0</v>
       </c>
@@ -5497,7 +5618,9 @@
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
+      <c r="C75" s="64" t="s">
+        <v>18</v>
+      </c>
       <c r="D75" s="12"/>
       <c r="E75" s="11"/>
       <c r="F75" s="13"/>
@@ -5559,7 +5682,7 @@
       <c r="D77" s="12"/>
       <c r="E77" s="11"/>
       <c r="F77" s="13"/>
-      <c r="H77" s="66"/>
+      <c r="H77" s="68"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
@@ -5609,9 +5732,9 @@
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
-      <c r="C79" s="67"/>
-      <c r="D79" s="68"/>
-      <c r="E79" s="67"/>
+      <c r="C79" s="69"/>
+      <c r="D79" s="70"/>
+      <c r="E79" s="69"/>
       <c r="F79" s="13"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -5690,9 +5813,9 @@
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
-      <c r="C82" s="69"/>
-      <c r="D82" s="68"/>
-      <c r="E82" s="69"/>
+      <c r="C82" s="71"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="71"/>
       <c r="F82" s="13"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
@@ -13148,68 +13271,113 @@
     <col customWidth="1" min="1" max="1" width="11.43"/>
     <col customWidth="1" min="2" max="2" width="5.71"/>
     <col customWidth="1" min="3" max="3" width="50.43"/>
-    <col customWidth="1" min="4" max="4" width="52.71"/>
-    <col customWidth="1" min="5" max="5" width="17.14"/>
+    <col customWidth="1" min="4" max="4" width="60.0"/>
+    <col customWidth="1" min="5" max="5" width="21.57"/>
   </cols>
   <sheetData>
     <row r="3">
       <c r="C3" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="1">
         <v>1.0</v>
       </c>
-      <c r="C7" s="70" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="70" t="s">
+      <c r="C7" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="D7" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="72" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="1">
+      <c r="B8" s="73">
         <v>2.0</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
+      <c r="C8" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="72" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="1">
+      <c r="B9" s="73">
         <v>3.0</v>
       </c>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
+      <c r="C9" s="72" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="1">
+      <c r="B10" s="73">
         <v>4.0</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
+      <c r="C10" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="72" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="73">
+        <v>5.0</v>
+      </c>
+      <c r="C11" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="74">
+        <v>6.0</v>
+      </c>
+      <c r="C12" s="75" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="22" ht="15.75" customHeight="1"/>
     <row r="23" ht="15.75" customHeight="1"/>
     <row r="24" ht="15.75" customHeight="1"/>
@@ -14189,6 +14357,7 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -14215,13 +14384,13 @@
   </cols>
   <sheetData>
     <row r="10">
-      <c r="B10" s="72" t="s">
-        <v>76</v>
+      <c r="B10" s="76" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="I11" s="11" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12">
@@ -14229,7 +14398,7 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D12" s="10"/>
     </row>
@@ -14238,7 +14407,7 @@
         <v>2.0</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D13" s="10"/>
     </row>
@@ -14247,7 +14416,7 @@
         <v>3.0</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="D14" s="10"/>
     </row>
@@ -14256,11 +14425,11 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D15" s="10"/>
-      <c r="G15" s="73" t="s">
-        <v>82</v>
+      <c r="G15" s="77" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="16">
@@ -14275,7 +14444,7 @@
         <v>1.0</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="D18" s="10"/>
     </row>
@@ -14284,7 +14453,7 @@
         <v>2.0</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D19" s="10"/>
     </row>
@@ -14293,7 +14462,7 @@
         <v>3.0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="D20" s="10"/>
     </row>
@@ -15309,7 +15478,7 @@
   <sheetData>
     <row r="3">
       <c r="B3" s="11" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4">
@@ -15317,7 +15486,7 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -15325,7 +15494,7 @@
         <v>2.0</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
@@ -15333,7 +15502,7 @@
         <v>3.0</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7">
@@ -15341,38 +15510,38 @@
         <v>4.0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="74" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="75" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" s="76" t="s">
-        <v>93</v>
+      <c r="B8" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="80" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="74" t="s">
-        <v>91</v>
+      <c r="B9" s="78" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="74" t="s">
-        <v>91</v>
+      <c r="B10" s="78" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="74" t="s">
-        <v>91</v>
+      <c r="B11" s="78" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="11" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/CheckLis.xlsx
+++ b/CheckLis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="109">
   <si>
     <t>#Tab</t>
   </si>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t>GitHub</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1fpXttJkmXNhzbFsUyoGVVHXackq-Fct8?usp=sharing</t>
   </si>
   <si>
     <t>Evidencias que demuestren el trabajo en equipo</t>
@@ -15528,6 +15531,9 @@
       <c r="B9" s="78" t="s">
         <v>104</v>
       </c>
+      <c r="C9" s="79" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="78" t="s">
@@ -15541,7 +15547,7 @@
     </row>
     <row r="13">
       <c r="C13" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -16525,12 +16531,16 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C9:F9"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C8"/>
+    <hyperlink r:id="rId2" ref="C9"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/CheckLis.xlsx
+++ b/CheckLis.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="111">
   <si>
     <t>#Tab</t>
   </si>
@@ -340,6 +340,12 @@
     <t>Quitar ip de la interfaz</t>
   </si>
   <si>
+    <t xml:space="preserve">DNS no encontraba servidor </t>
+  </si>
+  <si>
+    <t>Ingresar la direccion del servidor DNS en el servidor DHCP</t>
+  </si>
+  <si>
     <t>Lessson Learned</t>
   </si>
   <si>
@@ -347,6 +353,9 @@
   </si>
   <si>
     <t>Estrategía Utilizada para solucionar el problema</t>
+  </si>
+  <si>
+    <t>https://github.com/OrtizAxel/Caso-de-estudio.git</t>
   </si>
   <si>
     <t>Que me funciono y lo volveré a repetir</t>
@@ -388,9 +397,6 @@
     <t>.</t>
   </si>
   <si>
-    <t>https://github.com/OrtizAxel/Caso-de-estudio.git</t>
-  </si>
-  <si>
     <t>GitHub</t>
   </si>
   <si>
@@ -404,7 +410,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -513,6 +519,12 @@
     <font>
       <b/>
       <sz val="16.0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -864,9 +876,6 @@
     <xf borderId="10" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="1" fillId="8" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -907,11 +916,14 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
@@ -4866,7 +4878,12 @@
         <v>5.0</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="60"/>
+      <c r="F50" s="38">
+        <v>5.0</v>
+      </c>
+      <c r="G50" s="49">
+        <v>1.0</v>
+      </c>
       <c r="H50" s="41"/>
       <c r="I50" s="11"/>
       <c r="J50" s="11"/>
@@ -4897,7 +4914,12 @@
         <v>2.0</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="60"/>
+      <c r="F51" s="38">
+        <v>2.0</v>
+      </c>
+      <c r="G51" s="49">
+        <v>1.0</v>
+      </c>
       <c r="H51" s="41"/>
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
@@ -4984,7 +5006,9 @@
         <v>3.0</v>
       </c>
       <c r="E54" s="1"/>
-      <c r="F54" s="38"/>
+      <c r="F54" s="38">
+        <v>3.0</v>
+      </c>
       <c r="G54" s="49">
         <v>1.0</v>
       </c>
@@ -5018,7 +5042,9 @@
         <v>3.0</v>
       </c>
       <c r="E55" s="1"/>
-      <c r="F55" s="60"/>
+      <c r="F55" s="38">
+        <v>3.0</v>
+      </c>
       <c r="G55" s="49">
         <v>1.0</v>
       </c>
@@ -5052,7 +5078,9 @@
         <v>3.0</v>
       </c>
       <c r="E56" s="1"/>
-      <c r="F56" s="60"/>
+      <c r="F56" s="38">
+        <v>3.0</v>
+      </c>
       <c r="G56" s="49">
         <v>1.0</v>
       </c>
@@ -5160,10 +5188,10 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="11"/>
-      <c r="B60" s="61" t="s">
+      <c r="B60" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="62"/>
+      <c r="C60" s="61"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="13"/>
@@ -5244,7 +5272,7 @@
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
-      <c r="C63" s="63" t="s">
+      <c r="C63" s="62" t="s">
         <v>64</v>
       </c>
       <c r="D63" s="1">
@@ -5287,8 +5315,10 @@
         <v>2.0</v>
       </c>
       <c r="E64" s="1"/>
-      <c r="F64" s="60"/>
-      <c r="G64" s="64">
+      <c r="F64" s="38">
+        <v>2.0</v>
+      </c>
+      <c r="G64" s="63">
         <v>2.0</v>
       </c>
       <c r="H64" s="41"/>
@@ -5397,10 +5427,10 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="11"/>
-      <c r="B68" s="65" t="s">
+      <c r="B68" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="C68" s="66"/>
+      <c r="C68" s="65"/>
       <c r="D68" s="12"/>
       <c r="E68" s="11"/>
       <c r="F68" s="11"/>
@@ -5462,7 +5492,9 @@
         <v>5.0</v>
       </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="60"/>
+      <c r="F70" s="38">
+        <v>5.0</v>
+      </c>
       <c r="G70" s="49" t="s">
         <v>68</v>
       </c>
@@ -5496,7 +5528,9 @@
         <v>5.0</v>
       </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="60"/>
+      <c r="F71" s="38">
+        <v>5.0</v>
+      </c>
       <c r="G71" s="49" t="s">
         <v>68</v>
       </c>
@@ -5591,11 +5625,11 @@
       <c r="C74" s="46"/>
       <c r="D74" s="12"/>
       <c r="E74" s="11"/>
-      <c r="F74" s="67">
+      <c r="F74" s="66">
         <f>SUM(F15:F72)</f>
-        <v>72</v>
-      </c>
-      <c r="H74" s="67">
+        <v>100</v>
+      </c>
+      <c r="H74" s="66">
         <f>SUM(H15:H72)</f>
         <v>0</v>
       </c>
@@ -5621,7 +5655,7 @@
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
-      <c r="C75" s="64" t="s">
+      <c r="C75" s="63" t="s">
         <v>18</v>
       </c>
       <c r="D75" s="12"/>
@@ -5685,7 +5719,7 @@
       <c r="D77" s="12"/>
       <c r="E77" s="11"/>
       <c r="F77" s="13"/>
-      <c r="H77" s="68"/>
+      <c r="H77" s="67"/>
       <c r="I77" s="11"/>
       <c r="J77" s="11"/>
       <c r="K77" s="11"/>
@@ -5735,9 +5769,9 @@
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
-      <c r="C79" s="69"/>
-      <c r="D79" s="70"/>
-      <c r="E79" s="69"/>
+      <c r="C79" s="68"/>
+      <c r="D79" s="69"/>
+      <c r="E79" s="68"/>
       <c r="F79" s="13"/>
       <c r="H79" s="11"/>
       <c r="I79" s="11"/>
@@ -5816,9 +5850,9 @@
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="70"/>
-      <c r="E82" s="71"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="69"/>
+      <c r="E82" s="70"/>
       <c r="F82" s="13"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
@@ -13301,83 +13335,97 @@
       <c r="B7" s="1">
         <v>1.0</v>
       </c>
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="72" t="s">
+      <c r="D7" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="71" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="73">
+      <c r="B8" s="72">
         <v>2.0</v>
       </c>
-      <c r="C8" s="72" t="s">
+      <c r="C8" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="72" t="s">
+      <c r="D8" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="E8" s="71" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="73">
+      <c r="B9" s="72">
         <v>3.0</v>
       </c>
-      <c r="C9" s="72" t="s">
+      <c r="C9" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="D9" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="71" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="73">
+      <c r="B10" s="72">
         <v>4.0</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="71" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="73">
+      <c r="B11" s="72">
         <v>5.0</v>
       </c>
-      <c r="C11" s="72" t="s">
+      <c r="C11" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="72" t="s">
+      <c r="D11" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="71" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="74">
+      <c r="B12" s="73">
         <v>6.0</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="75" t="s">
+      <c r="D12" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="74" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="73">
+        <v>7.0</v>
+      </c>
+      <c r="C13" s="74" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="74" t="s">
         <v>82</v>
       </c>
     </row>
@@ -14387,13 +14435,13 @@
   </cols>
   <sheetData>
     <row r="10">
-      <c r="B10" s="76" t="s">
-        <v>89</v>
+      <c r="B10" s="75" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11">
       <c r="I11" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12">
@@ -14401,16 +14449,18 @@
         <v>1.0</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="10"/>
+        <v>93</v>
+      </c>
+      <c r="D12" s="76" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" s="12">
         <v>2.0</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D13" s="10"/>
     </row>
@@ -14419,7 +14469,7 @@
         <v>3.0</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D14" s="10"/>
     </row>
@@ -14428,11 +14478,11 @@
         <v>4.0</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D15" s="10"/>
       <c r="G15" s="77" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
@@ -14447,7 +14497,7 @@
         <v>1.0</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D18" s="10"/>
     </row>
@@ -14456,7 +14506,7 @@
         <v>2.0</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D19" s="10"/>
     </row>
@@ -14465,7 +14515,7 @@
         <v>3.0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D20" s="10"/>
     </row>
@@ -15458,10 +15508,13 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D12"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15481,7 +15534,7 @@
   <sheetData>
     <row r="3">
       <c r="B3" s="11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -15489,7 +15542,7 @@
         <v>1.0</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5">
@@ -15497,7 +15550,7 @@
         <v>2.0</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6">
@@ -15505,7 +15558,7 @@
         <v>3.0</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7">
@@ -15513,41 +15566,41 @@
         <v>4.0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="78" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C8" s="79" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="I8" s="80" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="78" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C9" s="79" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="78" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="78" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>

--- a/CheckLis.xlsx
+++ b/CheckLis.xlsx
@@ -385,6 +385,9 @@
     <t>Video llamadas</t>
   </si>
   <si>
+    <t>https://drive.google.com/drive/folders/1fpXttJkmXNhzbFsUyoGVVHXackq-Fct8?usp=sharing</t>
+  </si>
+  <si>
     <t>Whatsapp Messages</t>
   </si>
   <si>
@@ -398,9 +401,6 @@
   </si>
   <si>
     <t>GitHub</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/folders/1fpXttJkmXNhzbFsUyoGVVHXackq-Fct8?usp=sharing</t>
   </si>
   <si>
     <t>Evidencias que demuestren el trabajo en equipo</t>
@@ -534,14 +534,14 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
       <b/>
       <sz val="14.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="11">
@@ -921,10 +921,10 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -14430,7 +14430,7 @@
     <col customWidth="1" min="1" max="1" width="10.14"/>
     <col customWidth="1" min="2" max="2" width="6.29"/>
     <col customWidth="1" min="3" max="3" width="43.57"/>
-    <col customWidth="1" min="4" max="4" width="22.71"/>
+    <col customWidth="1" min="4" max="4" width="47.29"/>
     <col customWidth="1" min="5" max="9" width="11.43"/>
   </cols>
   <sheetData>
@@ -15541,6 +15541,9 @@
       <c r="B4" s="19">
         <v>1.0</v>
       </c>
+      <c r="C4" s="78" t="s">
+        <v>94</v>
+      </c>
       <c r="I4" s="11" t="s">
         <v>103</v>
       </c>
@@ -15549,8 +15552,11 @@
       <c r="B5" s="19">
         <v>2.0</v>
       </c>
+      <c r="C5" s="78" t="s">
+        <v>104</v>
+      </c>
       <c r="I5" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6">
@@ -15558,7 +15564,7 @@
         <v>3.0</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7">
@@ -15566,36 +15572,30 @@
         <v>4.0</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="79" t="s">
-        <v>94</v>
+      <c r="B8" s="79" t="s">
+        <v>108</v>
       </c>
       <c r="I8" s="80" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="79" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="78" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" s="79" t="s">
-        <v>109</v>
-      </c>
-    </row>
     <row r="10">
-      <c r="B10" s="78" t="s">
-        <v>107</v>
+      <c r="B10" s="79" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="78" t="s">
-        <v>107</v>
+      <c r="B11" s="79" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -16585,11 +16585,11 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C8"/>
-    <hyperlink r:id="rId2" ref="C9"/>
+    <hyperlink r:id="rId1" ref="C4"/>
+    <hyperlink r:id="rId2" ref="C5"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/CheckLis.xlsx
+++ b/CheckLis.xlsx
@@ -1599,11 +1599,39 @@
     <xdr:ext cx="4972050" cy="1971675"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="7134225" cy="4762500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png" title="Imagen"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
